--- a/DomainGenerator.xlsx
+++ b/DomainGenerator.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Web\KenticoRepositories\KenticoLicenseAndConfigurationGenerator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Web\KenticoRepositories\KenticoSiteConfigurationGenerator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC9CAA6B-7069-4B2E-A341-A7998462D437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88EF2B8A-1076-491A-AE84-792A08AC9715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38250" windowHeight="19560" xr2:uid="{6E1E76EB-196A-4084-B267-D521A2289A69}"/>
   </bookViews>
@@ -447,7 +447,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,7 +485,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
-        <f>_xlfn.CONCAT("configurations.Add(new BaseConfiguration(""",B2,""",""",C2,""",""",D2,""",",IF(D2=TRUE,"true","false"),", """,F2,""", SSLCertType.",G2,")); ")</f>
+        <f>_xlfn.CONCAT("configurations.Add(new BaseConfiguration(""",B2,""",""",C2,""",""",D2,""",",IF(E2=TRUE,"true","false"),", """,F2,""", SSLCertType.",G2,")); ")</f>
         <v xml:space="preserve">configurations.Add(new BaseConfiguration("mysite","","com",false, "MySite", SSLCertType.Wildcard)); </v>
       </c>
       <c r="B2" t="s">
@@ -506,7 +506,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
-        <f t="shared" ref="A3:A5" si="0">_xlfn.CONCAT("configurations.Add(new BaseConfiguration(""",B3,""",""",C3,""",""",D3,""",",IF(D3=TRUE,"true","false"),", """,F3,""", SSLCertType.",G3,")); ")</f>
+        <f t="shared" ref="A3:A5" si="0">_xlfn.CONCAT("configurations.Add(new BaseConfiguration(""",B3,""",""",C3,""",""",D3,""",",IF(E3=TRUE,"true","false"),", """,F3,""", SSLCertType.",G3,")); ")</f>
         <v xml:space="preserve">configurations.Add(new BaseConfiguration("mysite","services","com",false, "MyServiceSite", SSLCertType.Wildcard)); </v>
       </c>
       <c r="B3" t="s">
@@ -552,7 +552,7 @@
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">configurations.Add(new BaseConfiguration("othersite","","uk",false, "MyOtherSiteUK", SSLCertType.DomainSpecific)); </v>
+        <v xml:space="preserve">configurations.Add(new BaseConfiguration("othersite","","uk",true, "MyOtherSiteUK", SSLCertType.DomainSpecific)); </v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
